--- a/data_year/zb/国民经济核算/资金流量表(实物交易)/国内/资金来源.xlsx
+++ b/data_year/zb/国民经济核算/资金流量表(实物交易)/国内/资金来源.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,1601 +603,961 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1359.66408230932</v>
+        <v>10868.221261593</v>
       </c>
       <c r="C2" t="n">
-        <v>111.17</v>
+        <v>2748.03668278315</v>
       </c>
       <c r="D2" t="n">
-        <v>8.390000000000001</v>
+        <v>1604.27782605</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>98000.52785385599</v>
+        <v>399759.54431409</v>
       </c>
       <c r="I2" t="n">
-        <v>10510.0919</v>
+        <v>56457.645715</v>
       </c>
       <c r="J2" t="n">
-        <v>52242.87146784</v>
+        <v>190869.465529643</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>98522.9958851383</v>
+        <v>402513.713615745</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>84.17</v>
+        <v>2428.6760257363</v>
       </c>
       <c r="O2" t="n">
-        <v>99214.60000000001</v>
+        <v>401512.8</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>37006.9958851383</v>
+        <v>208398.713615745</v>
       </c>
       <c r="T2" t="n">
-        <v>2935.10519232725</v>
+        <v>5174.52257056832</v>
       </c>
       <c r="U2" t="n">
-        <v>2118.8631</v>
+        <v>17680.81</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>11975.3053093033</v>
+        <v>52672.5909182424</v>
       </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>2385.6</v>
+        <v>16207.243134</v>
       </c>
       <c r="AB2" t="n">
-        <v>2644.9</v>
+        <v>20584.5011</v>
       </c>
       <c r="AC2" t="n">
-        <v>980.564076560261</v>
+        <v>6137.51478653894</v>
       </c>
       <c r="AD2" t="n">
-        <v>1201.398208672</v>
+        <v>4475.1303548821</v>
       </c>
       <c r="AE2" t="n">
-        <v>9489.591258869579</v>
+        <v>71478.2902821319</v>
       </c>
       <c r="AF2" t="n">
-        <v>11906.830108672</v>
+        <v>66109.4887784015</v>
       </c>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="n">
-        <v>2943.49519232725</v>
+        <v>6778.80039661832</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1765.60809120794</v>
+        <v>12020.1947588599</v>
       </c>
       <c r="C3" t="n">
-        <v>109.27</v>
+        <v>3211.54652427159</v>
       </c>
       <c r="D3" t="n">
-        <v>10.33</v>
+        <v>2425.629049992</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>108068.22935257</v>
+        <v>468562.377316206</v>
       </c>
       <c r="I3" t="n">
-        <v>10089.87</v>
+        <v>82429.577452</v>
       </c>
       <c r="J3" t="n">
-        <v>57529.83341835</v>
+        <v>222423.840815893</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>108771.130088881</v>
+        <v>470145.444669974</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>92.84</v>
+        <v>3075.524</v>
       </c>
       <c r="O3" t="n">
-        <v>109655.2</v>
+        <v>473104.048647262</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>41837.2300888806</v>
+        <v>238033.944669974</v>
       </c>
       <c r="T3" t="n">
-        <v>3444.76057631822</v>
+        <v>6219.44472476208</v>
       </c>
       <c r="U3" t="n">
-        <v>3363.0008</v>
+        <v>22823.75</v>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="n">
-        <v>12968.1697732936</v>
+        <v>62270.8052059079</v>
       </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
-        <v>2748</v>
+        <v>20363.89</v>
       </c>
       <c r="AB3" t="n">
-        <v>3101.9</v>
+        <v>27217.5839</v>
       </c>
       <c r="AC3" t="n">
-        <v>1160.5988830443</v>
+        <v>7588.84553154888</v>
       </c>
       <c r="AD3" t="n">
-        <v>1289.8822893</v>
+        <v>4706.28073978027</v>
       </c>
       <c r="AE3" t="n">
-        <v>12139.1077742522</v>
+        <v>90014.26419040871</v>
       </c>
       <c r="AF3" t="n">
-        <v>11581.8622893</v>
+        <v>93422.9287160519</v>
       </c>
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="n">
-        <v>3455.09057631822</v>
+        <v>8645.073774754081</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2472.65348767011</v>
+        <v>12962.8474535439</v>
       </c>
       <c r="C4" t="n">
-        <v>115.81</v>
+        <v>4093.77579032463</v>
       </c>
       <c r="D4" t="n">
-        <v>20.51</v>
+        <v>3006.18954807848</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>119095.70001727</v>
+        <v>518214.742565182</v>
       </c>
       <c r="I4" t="n">
-        <v>10037.0783</v>
+        <v>103402.66</v>
       </c>
       <c r="J4" t="n">
-        <v>64501.50788725</v>
+        <v>256563.937218192</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>120170.410323011</v>
+        <v>518431.549566028</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>110.53</v>
+        <v>4411.210982584</v>
       </c>
       <c r="O4" t="n">
-        <v>120332.7</v>
+        <v>519470.099169899</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>48353.9103230106</v>
+        <v>256437.949566028</v>
       </c>
       <c r="T4" t="n">
-        <v>3651.56240519552</v>
+        <v>6622.54401217583</v>
       </c>
       <c r="U4" t="n">
-        <v>3542.89</v>
+        <v>25818.1619120047</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="n">
-        <v>14761.7561</v>
+        <v>68866.0282853542</v>
       </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
-        <v>3471.5</v>
+        <v>23930.6977</v>
       </c>
       <c r="AB4" t="n">
-        <v>4048.7</v>
+        <v>31411.0283</v>
       </c>
       <c r="AC4" t="n">
-        <v>1164.77421550095</v>
+        <v>8708.27953300119</v>
       </c>
       <c r="AD4" t="n">
-        <v>2236.18869209</v>
+        <v>6425.1062977476</v>
       </c>
       <c r="AE4" t="n">
-        <v>14700.5177031711</v>
+        <v>102831.01489855</v>
       </c>
       <c r="AF4" t="n">
-        <v>12499.60699209</v>
+        <v>118332.753070656</v>
       </c>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="n">
-        <v>3672.07240519552</v>
+        <v>9628.73356025431</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3107.78674483952</v>
+        <v>13968.8314443631</v>
       </c>
       <c r="C5" t="n">
-        <v>192.26</v>
+        <v>3305.04944049902</v>
       </c>
       <c r="D5" t="n">
-        <v>37.28</v>
+        <v>3857.89863268166</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>134977.01566547</v>
+        <v>583196.724839458</v>
       </c>
       <c r="I5" t="n">
-        <v>11557.62</v>
+        <v>86991.67066800001</v>
       </c>
       <c r="J5" t="n">
-        <v>71735.73861997</v>
+        <v>298966.094365619</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>136421.247805692</v>
+        <v>582656.905328346</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>126.15</v>
+        <v>5127.9177</v>
       </c>
       <c r="O5" t="n">
-        <v>135822.8</v>
+        <v>588018.755871842</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>58735.7478056919</v>
+        <v>281648.505328346</v>
       </c>
       <c r="T5" t="n">
-        <v>4037.37053745726</v>
+        <v>7707.34359611097</v>
       </c>
       <c r="U5" t="n">
-        <v>4195.8818</v>
+        <v>29030.3639</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="n">
-        <v>17516.1702</v>
+        <v>73536.4115246</v>
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
-        <v>4016.4</v>
+        <v>28743.9264</v>
       </c>
       <c r="AB5" t="n">
-        <v>4882.9</v>
+        <v>35993.5842</v>
       </c>
       <c r="AC5" t="n">
-        <v>1519.85034782609</v>
+        <v>10090.9631662903</v>
       </c>
       <c r="AD5" t="n">
-        <v>2009.97735146</v>
+        <v>8322.385527040809</v>
       </c>
       <c r="AE5" t="n">
-        <v>17722.8188926656</v>
+        <v>117827.669110653</v>
       </c>
       <c r="AF5" t="n">
-        <v>13886.00735146</v>
+        <v>103747.02333554</v>
       </c>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="n">
-        <v>4074.65053745726</v>
+        <v>11565.2422287926</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3991.36036753869</v>
+        <v>14051.5168194302</v>
       </c>
       <c r="C6" t="n">
-        <v>192.49</v>
+        <v>3722.38381265012</v>
       </c>
       <c r="D6" t="n">
-        <v>75.04000000000001</v>
+        <v>4033.79026832817</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>159453.566820752</v>
+        <v>644791.096112528</v>
       </c>
       <c r="I6" t="n">
-        <v>13186.32</v>
+        <v>99142.91179457049</v>
       </c>
       <c r="J6" t="n">
-        <v>80950.745184688</v>
+        <v>328347.367692841</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>161348.78184535</v>
+        <v>644879.278299285</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>175.1</v>
+        <v>5869.4274</v>
       </c>
       <c r="O6" t="n">
-        <v>159878.3</v>
+        <v>643974.04820343</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>73796.1818453498</v>
+        <v>316566.278299285</v>
       </c>
       <c r="T6" t="n">
-        <v>1494.47405628342</v>
+        <v>8161.87595243448</v>
       </c>
       <c r="U6" t="n">
-        <v>5408.8443</v>
+        <v>32362.8343</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="n">
-        <v>20608.8261</v>
+        <v>78643.1124359994</v>
       </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
-        <v>4627.4</v>
+        <v>33680.572168</v>
       </c>
       <c r="AB6" t="n">
-        <v>5780.3</v>
+        <v>40438.81373</v>
       </c>
       <c r="AC6" t="n">
-        <v>2020.72</v>
+        <v>10672.2051321483</v>
       </c>
       <c r="AD6" t="n">
-        <v>2751.575549104</v>
+        <v>11164.5835716423</v>
       </c>
       <c r="AE6" t="n">
-        <v>21828.6246675387</v>
+        <v>131205.942149579</v>
       </c>
       <c r="AF6" t="n">
-        <v>16305.485549104</v>
+        <v>119899.306578863</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="n">
-        <v>1569.51405628342</v>
+        <v>12195.6662207627</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4768.51639543211</v>
+        <v>14415.4999869614</v>
       </c>
       <c r="C7" t="n">
-        <v>393.646701482856</v>
+        <v>3427.89954155695</v>
       </c>
       <c r="D7" t="n">
-        <v>480.691176799</v>
+        <v>3863.92299368999</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>183617.408975621</v>
+        <v>686449.640728866</v>
       </c>
       <c r="I7" t="n">
-        <v>15451.939</v>
+        <v>98983.2286346523</v>
       </c>
       <c r="J7" t="n">
-        <v>93147.994923299</v>
+        <v>357075.812697445</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>185572.364120577</v>
+        <v>685655.860277758</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>306.0631</v>
+        <v>6743.0122</v>
       </c>
       <c r="O7" t="n">
-        <v>184937.4</v>
+        <v>689052.092748069</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>86214.8341205773</v>
+        <v>323389.360277758</v>
       </c>
       <c r="T7" t="n">
-        <v>1781.96573481963</v>
+        <v>8750.59887493405</v>
       </c>
       <c r="U7" t="n">
-        <v>6949.2665</v>
+        <v>36025.3183210014</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="n">
-        <v>23685.681399</v>
+        <v>79668.7114526208</v>
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
-        <v>5400.8</v>
+        <v>39117.6609268015</v>
       </c>
       <c r="AB7" t="n">
-        <v>6975.2</v>
+        <v>46354.0840013894</v>
       </c>
       <c r="AC7" t="n">
-        <v>2241.91</v>
+        <v>11687.5693385345</v>
       </c>
       <c r="AD7" t="n">
-        <v>4289.42149281317</v>
+        <v>15755.4075622363</v>
       </c>
       <c r="AE7" t="n">
-        <v>26335.6928954321</v>
+        <v>147600.132574688</v>
       </c>
       <c r="AF7" t="n">
-        <v>20441.070294296</v>
+        <v>124909.547938446</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="n">
-        <v>2262.65691161863</v>
+        <v>12614.521868624</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5588.64938889074</v>
+        <v>15466.7428261395</v>
       </c>
       <c r="C8" t="n">
-        <v>1180.90136641136</v>
+        <v>5164.42952749256</v>
       </c>
       <c r="D8" t="n">
-        <v>558.51150064</v>
+        <v>21.0113539682428</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>215904.359776762</v>
+        <v>740598.679313318</v>
       </c>
       <c r="I8" t="n">
-        <v>24986.86</v>
+        <v>98213.9868608409</v>
       </c>
       <c r="J8" t="n">
-        <v>106368.998961</v>
+        <v>386563.584624267</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>218141.812916908</v>
+        <v>739961.862717465</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>579.864</v>
+        <v>6877.3873</v>
       </c>
       <c r="O8" t="n">
-        <v>216314.380142192</v>
+        <v>743585.484929849</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>105037.912916908</v>
+        <v>340051.762717465</v>
       </c>
       <c r="T8" t="n">
-        <v>1965.08540190759</v>
+        <v>9002.0361225834</v>
       </c>
       <c r="U8" t="n">
-        <v>8814.8529</v>
+        <v>39004.5419</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="n">
-        <v>27656.6856117</v>
+        <v>86545.4126052044</v>
       </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
-        <v>6477.4</v>
+        <v>43604.8474</v>
       </c>
       <c r="AB8" t="n">
-        <v>8643.200000000001</v>
+        <v>50112.471</v>
       </c>
       <c r="AC8" t="n">
-        <v>2807.754</v>
+        <v>12564.6913470223</v>
       </c>
       <c r="AD8" t="n">
-        <v>5590.465218574</v>
+        <v>16139.5807766577</v>
       </c>
       <c r="AE8" t="n">
-        <v>32331.8562888907</v>
+        <v>160753.294473162</v>
       </c>
       <c r="AF8" t="n">
-        <v>32338.0905849854</v>
+        <v>126395.384464991</v>
       </c>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="n">
-        <v>2523.59690254759</v>
+        <v>9023.047476551639</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7278.11963308859</v>
+        <v>16764.8431615401</v>
       </c>
       <c r="C9" t="n">
-        <v>2387.234</v>
+        <v>5472.38066939564</v>
       </c>
       <c r="D9" t="n">
-        <v>655.1497879999999</v>
+        <v>15.404300869229</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>266421.999212496</v>
+        <v>820099.52521805</v>
       </c>
       <c r="I9" t="n">
-        <v>31292.06</v>
+        <v>104610.2767001</v>
       </c>
       <c r="J9" t="n">
-        <v>127918.919044464</v>
+        <v>424279.362420531</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>269243.210697663</v>
+        <v>819295.911707024</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>965.6565000000001</v>
+        <v>7821.9878561837</v>
       </c>
       <c r="O9" t="n">
-        <v>265810.30584365</v>
+        <v>820754.278153723</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>137010.310697663</v>
+        <v>382143.911707024</v>
       </c>
       <c r="T9" t="n">
-        <v>2507.65918760924</v>
+        <v>9884.90494472952</v>
       </c>
       <c r="U9" t="n">
-        <v>11964.83</v>
+        <v>44128.6648</v>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="n">
-        <v>35304.8632</v>
+        <v>93844.283915112</v>
       </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="n">
-        <v>7887.9</v>
+        <v>48652.99</v>
       </c>
       <c r="AB9" t="n">
-        <v>10812.3</v>
+        <v>58437.57</v>
       </c>
       <c r="AC9" t="n">
-        <v>3364.59583</v>
+        <v>13490.5172820562</v>
       </c>
       <c r="AD9" t="n">
-        <v>7861.60420736618</v>
+        <v>17932.9344435913</v>
       </c>
       <c r="AE9" t="n">
-        <v>41307.7454630886</v>
+        <v>181474.585243596</v>
       </c>
       <c r="AF9" t="n">
-        <v>42506.5547073662</v>
+        <v>135837.57966927</v>
       </c>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="n">
-        <v>3162.80897560924</v>
+        <v>9900.30924559875</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8807.30606801071</v>
+        <v>17960.7273090481</v>
       </c>
       <c r="C10" t="n">
-        <v>2058.48412312994</v>
+        <v>5545.0340028736</v>
       </c>
       <c r="D10" t="n">
-        <v>768.03287929</v>
+        <v>20.0651646805716</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>316030.337526745</v>
+        <v>914327.1016779901</v>
       </c>
       <c r="I10" t="n">
-        <v>43471.4971</v>
+        <v>118813.037560539</v>
       </c>
       <c r="J10" t="n">
-        <v>150511.686239537</v>
+        <v>475562.812842451</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>319027.493379762</v>
+        <v>914193.761113759</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>1337.06</v>
+        <v>7691.436976</v>
       </c>
       <c r="O10" t="n">
-        <v>314045.425793764</v>
+        <v>919281.129066646</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>165604.993379762</v>
+        <v>408058.81730585</v>
       </c>
       <c r="T10" t="n">
-        <v>3162.56915715007</v>
+        <v>11745.6665216678</v>
       </c>
       <c r="U10" t="n">
-        <v>14897.94</v>
+        <v>49227.84647</v>
       </c>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="n">
-        <v>39556.3366666667</v>
+        <v>95553.6922246562</v>
       </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
-        <v>9925.1</v>
+        <v>49586.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>13696.1</v>
+        <v>61347.75</v>
       </c>
       <c r="AC10" t="n">
-        <v>5156.87594</v>
+        <v>15311.2321298458</v>
       </c>
       <c r="AD10" t="n">
-        <v>9709.27320978737</v>
+        <v>17037.4512381083</v>
       </c>
       <c r="AE10" t="n">
-        <v>52483.3220080107</v>
+        <v>193434.255908894</v>
       </c>
       <c r="AF10" t="n">
-        <v>56576.3144329173</v>
+        <v>149086.959777521</v>
       </c>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="n">
-        <v>3930.60203644007</v>
+        <v>11765.7316863483</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8824.589997472611</v>
+        <v>24484.5354288571</v>
       </c>
       <c r="C11" t="n">
-        <v>2301.97622114401</v>
+        <v>6008.4683247283</v>
       </c>
       <c r="D11" t="n">
-        <v>1006.462</v>
+        <v>14.9851001250755</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>340319.951541934</v>
+        <v>983751.20256033</v>
       </c>
       <c r="I11" t="n">
-        <v>41421.256</v>
+        <v>132530.892908099</v>
       </c>
       <c r="J11" t="n">
-        <v>166957.943999446</v>
+        <v>513472.070732208</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>342482.489268583</v>
+        <v>984457.67417698</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>1733.808814</v>
+        <v>8496.194</v>
       </c>
       <c r="O11" t="n">
-        <v>340902.812581147</v>
+        <v>986515.202291903</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>173207.689268583</v>
+        <v>431825.935008417</v>
       </c>
       <c r="T11" t="n">
-        <v>3817.29234893689</v>
+        <v>12889.7094648449</v>
       </c>
       <c r="U11" t="n">
-        <v>15486.184512</v>
+        <v>47702.56788</v>
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="n">
-        <v>41962.7575438905</v>
+        <v>97932.4102311434</v>
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="n">
-        <v>12302.6</v>
+        <v>53979.95</v>
       </c>
       <c r="AB11" t="n">
-        <v>16115.6</v>
+        <v>64049.01</v>
       </c>
       <c r="AC11" t="n">
-        <v>6246.031731</v>
+        <v>16258.2862149383</v>
       </c>
       <c r="AD11" t="n">
-        <v>10027.675146869</v>
+        <v>24387.9010751198</v>
       </c>
       <c r="AE11" t="n">
-        <v>58975.0062404726</v>
+        <v>206474.349523795</v>
       </c>
       <c r="AF11" t="n">
-        <v>55484.716182013</v>
+        <v>171423.456307947</v>
       </c>
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="n">
-        <v>4823.75434893689</v>
+        <v>12904.6945649699</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10868.221261593</v>
+        <v>25670.78249561</v>
       </c>
       <c r="C12" t="n">
-        <v>2748.03668278315</v>
+        <v>7196.26349084713</v>
       </c>
       <c r="D12" t="n">
-        <v>1604.27782605</v>
+        <v>11.4964967091277</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>399759.54431409</v>
+        <v>1005451.31315167</v>
       </c>
       <c r="I12" t="n">
-        <v>56457.645715</v>
+        <v>142731.152923847</v>
       </c>
       <c r="J12" t="n">
-        <v>190869.465529643</v>
+        <v>529580.54131308</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>402513.713615745</v>
+        <v>1006022.39629103</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>2428.6760257363</v>
+        <v>9851.821099999999</v>
       </c>
       <c r="O12" t="n">
-        <v>401512.8</v>
+        <v>1013567.00223068</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>208398.713615745</v>
+        <v>445211.255726892</v>
       </c>
       <c r="T12" t="n">
-        <v>5174.52257056832</v>
+        <v>14565.0244393315</v>
       </c>
       <c r="U12" t="n">
-        <v>17680.81</v>
+        <v>48002.10292</v>
       </c>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="n">
-        <v>52672.5909182424</v>
+        <v>88546.7383924515</v>
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
-        <v>16207.243134</v>
+        <v>57360.01</v>
       </c>
       <c r="AB12" t="n">
-        <v>20584.5011</v>
+        <v>54847.98</v>
       </c>
       <c r="AC12" t="n">
-        <v>6137.51478653894</v>
+        <v>16958.6769941084</v>
       </c>
       <c r="AD12" t="n">
-        <v>4475.1303548821</v>
+        <v>20296.0953229927</v>
       </c>
       <c r="AE12" t="n">
-        <v>71478.2902821319</v>
+        <v>202839.552409718</v>
       </c>
       <c r="AF12" t="n">
-        <v>66109.4887784015</v>
+        <v>180075.332837687</v>
       </c>
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="n">
-        <v>6778.80039661832</v>
+        <v>14576.5209360406</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12020.1947588599</v>
+        <v>28344.7505025358</v>
       </c>
       <c r="C13" t="n">
-        <v>3211.54652427159</v>
+        <v>8189.85492827034</v>
       </c>
       <c r="D13" t="n">
-        <v>2425.629049992</v>
+        <v>16.7689619932521</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>468562.377316206</v>
+        <v>1141230.78321198</v>
       </c>
       <c r="I13" t="n">
-        <v>82429.577452</v>
+        <v>160028.504117242</v>
       </c>
       <c r="J13" t="n">
-        <v>222423.840815893</v>
+        <v>589209.702027812</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>470145.444669974</v>
+        <v>1142252.61550946</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>3075.524</v>
+        <v>10501.645</v>
       </c>
       <c r="O13" t="n">
-        <v>473104.048647262</v>
+        <v>1149236.97861087</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>238033.944669974</v>
+        <v>522564.457621044</v>
       </c>
       <c r="T13" t="n">
-        <v>6219.44472476208</v>
+        <v>14014.790854207</v>
       </c>
       <c r="U13" t="n">
-        <v>22823.75</v>
+        <v>56043.7319611707</v>
       </c>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="n">
-        <v>62270.8052059079</v>
+        <v>99220.07873174841</v>
       </c>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
-        <v>20363.89</v>
+        <v>62503.83</v>
       </c>
       <c r="AB13" t="n">
-        <v>27217.5839</v>
+        <v>74270.47</v>
       </c>
       <c r="AC13" t="n">
-        <v>7588.84553154888</v>
+        <v>16296.9556922389</v>
       </c>
       <c r="AD13" t="n">
-        <v>4706.28073978027</v>
+        <v>25039.9913161663</v>
       </c>
       <c r="AE13" t="n">
-        <v>90014.26419040871</v>
+        <v>237459.738155945</v>
       </c>
       <c r="AF13" t="n">
-        <v>93422.9287160519</v>
+        <v>203759.995361679</v>
       </c>
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="n">
-        <v>8645.073774754081</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>12962.8474535439</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4093.77579032463</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3006.18954807848</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>518214.742565182</v>
-      </c>
-      <c r="I14" t="n">
-        <v>103402.66</v>
-      </c>
-      <c r="J14" t="n">
-        <v>256563.937218192</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>518431.549566028</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>4411.210982584</v>
-      </c>
-      <c r="O14" t="n">
-        <v>519470.099169899</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>256437.949566028</v>
-      </c>
-      <c r="T14" t="n">
-        <v>6622.54401217583</v>
-      </c>
-      <c r="U14" t="n">
-        <v>25818.1619120047</v>
-      </c>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="n">
-        <v>68866.0282853542</v>
-      </c>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="n">
-        <v>23930.6977</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>31411.0283</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8708.27953300119</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6425.1062977476</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>102831.01489855</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>118332.753070656</v>
-      </c>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="n">
-        <v>9628.73356025431</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>13968.8314443631</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3305.04944049902</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3857.89863268166</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>583196.724839458</v>
-      </c>
-      <c r="I15" t="n">
-        <v>86991.67066800001</v>
-      </c>
-      <c r="J15" t="n">
-        <v>298966.094365619</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>582656.905328346</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>5127.9177</v>
-      </c>
-      <c r="O15" t="n">
-        <v>588018.755871842</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
-        <v>281648.505328346</v>
-      </c>
-      <c r="T15" t="n">
-        <v>7707.34359611097</v>
-      </c>
-      <c r="U15" t="n">
-        <v>29030.3639</v>
-      </c>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="n">
-        <v>73536.4115246</v>
-      </c>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="n">
-        <v>28743.9264</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>35993.5842</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>10090.9631662903</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>8322.385527040809</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>117827.669110653</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>103747.02333554</v>
-      </c>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="n">
-        <v>11565.2422287926</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>14051.5168194302</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3722.38381265012</v>
-      </c>
-      <c r="D16" t="n">
-        <v>4033.79026832817</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>644791.096112528</v>
-      </c>
-      <c r="I16" t="n">
-        <v>99142.91179457049</v>
-      </c>
-      <c r="J16" t="n">
-        <v>328347.367692841</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>644879.278299285</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>5869.4274</v>
-      </c>
-      <c r="O16" t="n">
-        <v>643974.04820343</v>
-      </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
-        <v>316566.278299285</v>
-      </c>
-      <c r="T16" t="n">
-        <v>8161.87595243448</v>
-      </c>
-      <c r="U16" t="n">
-        <v>32362.8343</v>
-      </c>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="n">
-        <v>78643.1124359994</v>
-      </c>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="n">
-        <v>33680.572168</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>40438.81373</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>10672.2051321483</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>11164.5835716423</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>131205.942149579</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>119899.306578863</v>
-      </c>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="n">
-        <v>12195.6662207627</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>14415.4999869614</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3427.89954155695</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3863.92299368999</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>686449.640728866</v>
-      </c>
-      <c r="I17" t="n">
-        <v>98983.2286346523</v>
-      </c>
-      <c r="J17" t="n">
-        <v>357075.812697445</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>685655.860277758</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>6743.0122</v>
-      </c>
-      <c r="O17" t="n">
-        <v>689052.092748069</v>
-      </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
-        <v>323389.360277758</v>
-      </c>
-      <c r="T17" t="n">
-        <v>8750.59887493405</v>
-      </c>
-      <c r="U17" t="n">
-        <v>36025.3183210014</v>
-      </c>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="n">
-        <v>79668.7114526208</v>
-      </c>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="n">
-        <v>39117.6609268015</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>46354.0840013894</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>11687.5693385345</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>15755.4075622363</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>147600.132574688</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>124909.547938446</v>
-      </c>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="n">
-        <v>12614.521868624</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>15466.7428261395</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5164.42952749256</v>
-      </c>
-      <c r="D18" t="n">
-        <v>21.0113539682428</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>740598.679313318</v>
-      </c>
-      <c r="I18" t="n">
-        <v>98213.9868608409</v>
-      </c>
-      <c r="J18" t="n">
-        <v>386563.584624267</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>739961.862717465</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>6877.3873</v>
-      </c>
-      <c r="O18" t="n">
-        <v>743585.484929849</v>
-      </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
-        <v>340051.762717465</v>
-      </c>
-      <c r="T18" t="n">
-        <v>9002.0361225834</v>
-      </c>
-      <c r="U18" t="n">
-        <v>39004.5419</v>
-      </c>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="n">
-        <v>86545.4126052044</v>
-      </c>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="n">
-        <v>43604.8474</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>50112.471</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>12564.6913470223</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>16139.5807766577</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>160753.294473162</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>126395.384464991</v>
-      </c>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="n">
-        <v>9023.047476551639</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>16764.8431615401</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5472.38066939564</v>
-      </c>
-      <c r="D19" t="n">
-        <v>15.404300869229</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>820099.52521805</v>
-      </c>
-      <c r="I19" t="n">
-        <v>104610.2767001</v>
-      </c>
-      <c r="J19" t="n">
-        <v>424279.362420531</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>819295.911707024</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
-        <v>7821.9878561837</v>
-      </c>
-      <c r="O19" t="n">
-        <v>820754.278153723</v>
-      </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
-        <v>382143.911707024</v>
-      </c>
-      <c r="T19" t="n">
-        <v>9884.90494472952</v>
-      </c>
-      <c r="U19" t="n">
-        <v>44128.6648</v>
-      </c>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="n">
-        <v>93844.283915112</v>
-      </c>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="n">
-        <v>48652.99</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>58437.57</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>13490.5172820562</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>17932.9344435913</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>181474.585243596</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>135837.57966927</v>
-      </c>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="n">
-        <v>9900.30924559875</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>17960.7273090481</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5545.0340028736</v>
-      </c>
-      <c r="D20" t="n">
-        <v>20.0651646805716</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>914327.1016779901</v>
-      </c>
-      <c r="I20" t="n">
-        <v>118813.037560539</v>
-      </c>
-      <c r="J20" t="n">
-        <v>475562.812842451</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>914193.761113759</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
-        <v>7691.436976</v>
-      </c>
-      <c r="O20" t="n">
-        <v>919281.129066646</v>
-      </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
-        <v>408058.81730585</v>
-      </c>
-      <c r="T20" t="n">
-        <v>11745.6665216678</v>
-      </c>
-      <c r="U20" t="n">
-        <v>49227.84647</v>
-      </c>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="n">
-        <v>95553.6922246562</v>
-      </c>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="n">
-        <v>49586.7</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>61347.75</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>15311.2321298458</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>17037.4512381083</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>193434.255908894</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>149086.959777521</v>
-      </c>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="n">
-        <v>11765.7316863483</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>24484.5354288571</v>
-      </c>
-      <c r="C21" t="n">
-        <v>6008.4683247283</v>
-      </c>
-      <c r="D21" t="n">
-        <v>14.9851001250755</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>983751.20256033</v>
-      </c>
-      <c r="I21" t="n">
-        <v>132530.892908099</v>
-      </c>
-      <c r="J21" t="n">
-        <v>513472.070732208</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>984457.67417698</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
-        <v>8496.194</v>
-      </c>
-      <c r="O21" t="n">
-        <v>986515.202291903</v>
-      </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
-        <v>431825.935008417</v>
-      </c>
-      <c r="T21" t="n">
-        <v>12889.7094648449</v>
-      </c>
-      <c r="U21" t="n">
-        <v>47702.56788</v>
-      </c>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="n">
-        <v>97932.4102311434</v>
-      </c>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="n">
-        <v>53979.95</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>64049.01</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>16258.2862149383</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>24387.9010751198</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>206474.349523795</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>171423.456307947</v>
-      </c>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="n">
-        <v>12904.6945649699</v>
+        <v>14031.5598162003</v>
       </c>
     </row>
   </sheetData>
